--- a/2019_Fall/Homework of BCH709 Midterm (Responses).xlsx
+++ b/2019_Fall/Homework of BCH709 Midterm (Responses).xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\scratch\lecture\BCH709\2019_Fall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34CF5791-D1C8-4A97-A744-CFD20DDEC1E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFF4C9D-1ECA-4D38-A2A7-E3CC57A31221}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="216">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3917,6 +3918,366 @@
   <si>
     <t xml:space="preserve"> WT:861977.8911074615</t>
   </si>
+  <si>
+    <t>Mitiku Mengistu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The process of RNA sequencing involves the isolation of RNA, conversation of mRNA into complementary cDNA, and sequencing of the cDNA. RNA-seq provides a rapid, inexpensive approach to access gene sequences, gene expression abundances, and gene expression patterns in target organisms. It helps to trap the gene expression dynamics even in organisms that haven’t a reference genome. This capability would enable to determine the transcriptome for an entire genome of the organism of interest.
+Whole genome sequencing projects involve: 1) Sequencing of the DNA molecule of the target organism using appropriate DNA sequencing platforms, 2) Assemble those sequence reads in to cotigs, scaffolds, and/or chromosome scales using computational/bioinformatics tools and pipelines, and 3) Annotation of the assembled sequence (addition of biological information on to the assembled sequence). Genome annotation can be achieved through in silico and /or experimental approaches. Genome assembly and annotation of an organism which doesn’t have a reference genome is one of the challenges in bioinformatics. Transcriptome assembly can be used in whole genome sequencing projects to facilitate genome assembly and annotation tasks. 
+</t>
+  </si>
+  <si>
+    <t>Selection of sequencing platform for RNA-seq experiments is a crucial step and highly depends on the goals of the investigation/project. Selection of the sequencing platforms can affect downstream computational analysis and interpretation of the sequence data. Sequencing platforms can, generally, be grouped in to two as: sequencing by synthesis (PCR-based) and single molecule sequencing (non-PCR-based). Each group of sequencing platforms has its own pros and cons. Illumina sequencing platforms are the best platforms for RNA sequencing experiments. Illumina platforms use the sequencing by synthesis approach. They are best for RNA-seq because of several advantages over other NGS platforms like the PacBio and Oxford nanopore. Some of the advantages include 1)Illumina platforms provide high throughput (huge yield), 2) Illuminas are cost-effective/cheap, 3) Compared to single molecule platforms (PacBio=1-15%; oxford nanopore=38%), Illumina plat forms have lower error rate (0.1%, they are reliable), 4) Illumina platforms set the industry standard that there is huge amount of available resources (software), 5) Although the read length is lower than that of PacBio and Oxford nanopore, Illuminas provide long enough read lengths for RNA-seq analysis.</t>
+  </si>
+  <si>
+    <t>FASTA stores a variable number of sequence records, and for each record it stores the sequence itself, and a sequence ID. Each record starts with a header line whose first character is &gt;, followed by the sequence ID. The next lines of a record contain the actual sequence.
+FASTQ files are mostly used to store short-read data from high-throughput sequencing experiments. The sequence and quality scores are usually put into a single line each, and indeed many tools assume that each record in a FASTQ file is exactly four lines long, even though this isn’t guaranteed.
+A FASTQ record has the following format: a) A line starting with @, containing the sequence ID. B) One or more lines that contain the sequence. C) A new line starting with the character +, and being either empty or repeating the sequence ID. D) One or more lines that contain the quality scores.
+(Cited from www.bioinformatics.stackexchange.com)</t>
+  </si>
+  <si>
+    <t>The first hyphen indicates that it is a file, not a directory. So the file permission (rwxr-xr-x) indicates that the user has permission to read(r), write(w) and execute(x) the given file. The group and others have same kind of permission that anyone in the group or any other can only read(r) and execute (x) the file. Both (group and others) do not have the permission to write the file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># packages in environment at /data/gpfs/home/mmengistu/miniconda3/envs/midterm:
+#
+# Name Version Build Channel
+_libgcc_mutex 0.1 main 
+_r-mutex 1.0.0 anacondar_1 
+asn1crypto 1.2.0 py37_0 
+beautifulsoup4 4.8.1 py37_0 
+bioconductor-biobase 2.32.0 0 bioconda
+bioconductor-biocgenerics 0.18.0 r3.2.2_0 bioconda
+bioconductor-ebseq 1.12.0 0 bioconda
+bioconductor-edger 3.14.0 0 bioconda
+bioconductor-limma 3.28.10 0 bioconda
+biopython 1.74 py37h7b6447c_0 
+blas 1.0 mkl 
+bowtie 1.2.3 py37hc9558a2_0 bioconda
+bowtie2 2.3.5 py37he860b03_0 bioconda
+bz2file 0.98 py37_1 
+bzip2 1.0.8 h7b6447c_0 
+ca-certificates 2019.10.16 0 
+cairo 1.14.12 h8948797_3 
+certifi 2019.9.11 py37_0 
+cffi 1.13.1 py37h2e261b9_0 
+chardet 3.0.4 py37_1003 
+click 7.0 py37_0 
+cmake 3.14.0 h52cb24c_0 
+colormath 3.0.0 py_2 conda-forge
+conda 4.7.12 py37_0 
+conda-build 3.18.11 py37_0 
+conda-package-handling 1.6.0 py37h7b6447c_0 
+cryptography 2.8 py37h1ba5d50_0 
+curl 7.65.3 hbc83047_0 
+cutadapt 1.18 py37h14c3975_1 bioconda
+cycler 0.10.0 py37_0 
+dbus 1.13.12 h746ee38_0 
+decorator 4.4.1 py_0 
+expat 2.2.6 he6710b0_0 
+fastqc 0.11.8 2 bioconda
+filelock 3.0.12 py_0 
+font-ttf-dejavu-sans-mono 2.37 h6964260_0 
+fontconfig 2.13.0 h9420a91_0 
+freetype 2.9.1 h8a8886c_1 
+fribidi 1.0.5 h7b6447c_0 
+future 0.18.2 py37_0 
+glib 2.63.1 h5a9c865_0 
+glob2 0.7 py_0 
+graphite2 1.3.13 h23475e2_0 
+gst-plugins-base 1.14.0 hbbd80ab_1 
+gstreamer 1.14.0 hb453b48_1 
+harfbuzz 1.8.8 hffaf4a1_0 
+htop 2.2.0 hf8c457e_1000 conda-forge
+htslib 1.9 h4da6232_3 bioconda
+icu 58.2 h9c2bf20_1 
+idna 2.8 py37_0 
+intel-openmp 2019.4 243 
+jinja2 2.10.3 py_0 
+jpeg 9b h024ee3a_2 
+kiwisolver 1.1.0 py37he6710b0_0 
+kmer-jellyfish 2.3.0 hc9558a2_1 bioconda
+krb5 1.16.1 h173b8e3_7 
+libarchive 3.3.3 h5d8350f_5 
+libcurl 7.65.3 h20c2e04_0 
+libdeflate 1.2 h516909a_1 bioconda
+libedit 3.1.20181209 hc058e9b_0 
+libffi 3.2.1 hd88cf55_4 
+libgcc 7.2.0 h69d50b8_2 
+libgcc-ng 9.1.0 hdf63c60_0 
+libgfortran-ng 7.3.0 hdf63c60_0 
+libiconv 1.15 h63c8f33_5 
+liblief 0.9.0 h7725739_2 
+libpng 1.6.37 hbc83047_0 
+libssh2 1.8.2 h1ba5d50_0 
+libstdcxx-ng 9.1.0 hdf63c60_0 
+libtiff 4.1.0 h2733197_0 
+libuuid 1.0.3 h1bed415_2 
+libxcb 1.13 h1bed415_1 
+libxml2 2.9.9 hea5a465_1 
+lz4-c 1.8.1.2 h14c3975_0 
+lzo 2.10 h49e0be7_2 
+lzstring 1.0.4 py_1001 conda-forge
+markdown 3.1.1 py37_0 
+markupsafe 1.1.1 py37h7b6447c_0 
+matplotlib 3.1.1 py37h5429711_0 
+mkl 2019.4 243 
+mkl-service 2.3.0 py37he904b0f_0 
+mkl_fft 1.0.15 py37ha843d7b_0 
+mkl_random 1.1.0 py37hd6b4f25_0 
+multiqc 1.7 py_4 bioconda
+mysql-connector-c 6.1.6 2 bioconda
+nano 2.9.8 hb256ff8_1000 conda-forge
+ncurses 6.1 he6710b0_1 
+networkx 2.4 py_0 
+numpy 1.17.3 py37hd14ec0e_0 
+numpy-base 1.17.3 py37hde5b4d6_0 
+openjdk 8.0.152 h46b5887_1 
+openssl 1.1.1d h7b6447c_3 
+pango 1.42.4 h049681c_0 
+patchelf 0.9 he6710b0_3 
+pcre 8.43 he6710b0_0 
+perl 5.26.2 h14c3975_0 
+perl-app-cpanminus 1.7044 pl526_1 bioconda
+perl-carp 1.38 pl526_3 bioconda
+perl-constant 1.33 pl526_1 bioconda
+perl-cpan-meta 2.150010 pl526_0 bioconda
+perl-cpan-meta-requirements 2.140 pl526_0 bioconda
+perl-cpan-meta-yaml 0.018 pl526_0 bioconda
+perl-data-dumper 2.173 pl526_0 bioconda
+perl-encode 2.88 pl526_1 bioconda
+perl-exporter 5.72 pl526_1 bioconda
+perl-extutils-cbuilder 0.280230 pl526_1 bioconda
+perl-extutils-makemaker 7.36 pl526_1 bioconda
+perl-extutils-manifest 1.72 pl526_0 bioconda
+perl-extutils-parsexs 3.35 pl526_0 bioconda
+perl-file-path 2.16 pl526_0 bioconda
+perl-file-temp 0.2304 pl526_2 bioconda
+perl-getopt-long 2.50 pl526_1 bioconda
+perl-ipc-cmd 1.02 pl526_0 bioconda
+perl-json-pp 4.04 pl526_0 bioconda
+perl-locale-maketext-simple 0.21 pl526_2 bioconda
+perl-module-build 0.4224 pl526_3 bioconda
+perl-module-corelist 5.20190524 pl526_0 bioconda
+perl-module-load 0.32 pl526_1 bioconda
+perl-module-load-conditional 0.68 pl526_2 bioconda
+perl-module-metadata 1.000036 pl526_0 bioconda
+perl-params-check 0.38 pl526_1 bioconda
+perl-parent 0.236 pl526_1 bioconda
+perl-perl-ostype 1.010 pl526_1 bioconda
+perl-scalar-list-utils 1.52 pl526h516909a_0 bioconda
+perl-text-abbrev 1.02 pl526_0 bioconda
+perl-text-parsewords 3.30 pl526_0 bioconda
+perl-version 0.9924 pl526_0 bioconda
+pigz 2.4 h84994c4_0 
+pip 19.3.1 py37_0 
+pixman 0.38.0 h7b6447c_0 
+pkginfo 1.5.0.1 py37_0 
+psutil 5.6.3 py37h7b6447c_0 
+py-lief 0.9.0 py37h7725739_2 
+pycosat 0.6.3 py37h14c3975_0 
+pycparser 2.19 py37_0 
+pyopenssl 19.0.0 py37_0 
+pyparsing 2.4.2 py_0 
+pyqt 5.9.2 py37h05f1152_2 
+pysocks 1.7.1 py37_0 
+python 3.7.5 h0371630_0 
+python-dateutil 2.8.1 py_0 
+python-libarchive-c 2.8 py37_13 
+pytz 2019.3 py_0 
+pyyaml 5.1.2 py37h7b6447c_0 
+qt 5.9.7 h5867ecd_1 
+r 3.2.2 0 r
+r-base 3.2.2 0 r
+r-bitops 1.0_6 r3.2.2_1a r
+r-blockmodeling 0.1.8 r3.2.2_0 bioconda
+r-boot 1.3_17 r3.2.2_0a r
+r-catools 1.17.1 r3.2.2_0 bioconda
+r-class 7.3_14 r3.2.2_0a r
+r-cluster 2.0.3 r3.2.2_0a r
+r-codetools 0.2_14 r3.2.2_0a r
+r-crayon 1.3.1 r3.2.2_0a r
+r-digest 0.6.9 r3.2.2_0 bioconda
+r-fastcluster 1.1.20 r3.2.2_0 bioconda
+r-foreign 0.8_66 r3.2.2_0a r
+r-gdata 2.17.0 r3.2.2_0a r
+r-gplots 2.17.0 r3.2.2_0a r
+r-gtools 3.5.0 r3.2.2_0a r
+r-kernsmooth 2.23_15 r3.2.2_0a r
+r-lattice 0.20_33 r3.2.2_0a r
+r-magrittr 1.5 r3.2.2_0 bioconda
+r-mass 7.3_45 r3.2.2_0a r
+r-matrix 1.2_2 r3.2.2_0a r
+r-memoise 0.2.1 r3.2.2_1a r
+r-mgcv 1.8_9 r3.2.2_0a r
+r-nlme 3.1_122 r3.2.2_0a r
+r-nnet 7.3_11 r3.2.2_0a r
+r-praise 1.0.0 r3.2.2_0a r
+r-r6 2.1.1 r3.2.2_0a r
+r-recommended 3.2.2 r3.2.2_0 r
+r-rpart 4.1_10 r3.2.2_0a r
+r-spatial 7.3_11 r3.2.2_0a r
+r-survival 2.38_3 r3.2.2_0a r
+r-testthat 1.0.2 r3.2.2_0 bioconda
+readline 7.0 h7b6447c_5 
+requests 2.22.0 py37_0 
+rhash 1.3.8 h1ba5d50_0 
+ripgrep 0.10.0 hc07d326_0 
+rsem 1.3.2 pl526ha52163a_1 bioconda
+ruamel_yaml 0.15.46 py37h14c3975_0 
+salmon 0.14.2 ha0cc327_0 bioconda
+samtools 1.9 h10a08f8_12 bioconda
+setuptools 41.6.0 py37_0 
+simplejson 3.16.0 py37h14c3975_0 
+sip 4.19.8 py37hf484d3e_0 
+six 1.12.0 py37_0 
+soupsieve 1.9.3 py37_0 
+spectra 0.0.11 py_1 conda-forge
+sqlite 3.30.1 h7b6447c_0 
+tbb 2019.8 hfd86e86_0 
+tk 8.6.8 hbc83047_0 
+tornado 6.0.3 py37h7b6447c_0 
+tqdm 4.36.1 py_0 
+trim-galore 0.6.4 1 bioconda
+trimmomatic 0.39 1 bioconda
+trinity 2.8.5 h8b12597_4 bioconda
+ucsc-bigwigsummary 357 1 bioconda
+urllib3 1.24.2 py37_0 
+wheel 0.33.6 py37_0 
+xopen 0.7.3 py_0 bioconda
+xz 5.2.4 h14c3975_4 
+yaml 0.1.7 had09818_2 
+zlib 1.2.11 h7b6447c_3 
+zstd 1.3.7 h0b5b093_0 
+</t>
+  </si>
+  <si>
+    <t>wt_r1: 504; wt_r2: 504; tr_r1: 714; and tr_r2: 714</t>
+  </si>
+  <si>
+    <t>wt_r1=44%; wt_r2=44%; tr_r1=44%; and tr_r2=44%</t>
+  </si>
+  <si>
+    <t>################################
+## Counts of transcripts, etc.
+################################
+Total trinity 'genes': 2
+Total trinity transcripts: 3
+Percent GC: 45.58
+########################################
+Stats based on ALL transcript contigs:
+########################################
+Contig N10: 828
+Contig N20: 828
+Contig N30: 828
+Contig N40: 828
+Contig N50: 659
+Median contig length: 659
+Average contig: 679.33
+Total assembled bases: 2038
+#####################################################
+## Stats based on ONLY LONGEST ISOFORM per 'GENE':
+#####################################################
+Contig N10: 828
+Contig N20: 828
+Contig N30: 828
+Contig N40: 828
+Contig N50: 828
+Median contig length: 743.5
+Average contig: 743.50
+Total assembled bases: 1487</t>
+  </si>
+  <si>
+    <t>WT:1134671.97, TR:1135139.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR_rsem_outdir WT_rsem_outdir
+TRINITY_DN1_c0_g1_i2 215610.567 218167.214
+TRINITY_DN0_c0_g1_i1 621764.911 621518.262
+TRINITY_DN1_c0_g1_i1 162565.090 160373.950
+</t>
+  </si>
+  <si>
+    <t>Hayden</t>
+  </si>
+  <si>
+    <t>McSwiggin</t>
+  </si>
+  <si>
+    <t>Minna</t>
+  </si>
+  <si>
+    <t>Abtahi</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Kunapareddy</t>
+  </si>
+  <si>
+    <t>Roshika</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Galdamez</t>
+  </si>
+  <si>
+    <t>Byungchang</t>
+  </si>
+  <si>
+    <t>Jin</t>
+  </si>
+  <si>
+    <t>Devin</t>
+  </si>
+  <si>
+    <t>Mazolewski</t>
+  </si>
+  <si>
+    <t>Kage</t>
+  </si>
+  <si>
+    <t>Robichaux</t>
+  </si>
+  <si>
+    <t>Brianne</t>
+  </si>
+  <si>
+    <t>Hritz</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>Harger</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Chung</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Knupp</t>
+  </si>
+  <si>
+    <t>Mitiku</t>
+  </si>
+  <si>
+    <t>Mengistu</t>
+  </si>
 </sst>
 </file>
 
@@ -3925,7 +4286,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3936,6 +4297,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3945,7 +4312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3953,15 +4320,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4184,7 +4586,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4909,8 +5311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE72E22-C6E5-447C-A04C-1AF7509B675A}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S25" sqref="A25:S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5663,17 +6065,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -5720,18 +6122,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>43763.644110995374</v>
+        <v>43763.655250717595</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3">
         <v>10</v>
       </c>
       <c r="D25" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E25" s="3">
         <v>5</v>
@@ -5740,62 +6142,68 @@
         <v>8</v>
       </c>
       <c r="G25" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H25" s="3">
         <v>10</v>
       </c>
       <c r="I25" s="3">
+        <v>10</v>
+      </c>
+      <c r="J25" s="3">
+        <v>10</v>
+      </c>
+      <c r="K25" s="3">
+        <v>10</v>
+      </c>
+      <c r="L25" s="3">
+        <v>10</v>
+      </c>
+      <c r="M25" s="3">
+        <v>10</v>
+      </c>
+      <c r="N25" s="3">
         <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>10</v>
-      </c>
-      <c r="K25" s="3">
-        <v>10</v>
-      </c>
-      <c r="L25" s="3">
-        <v>10</v>
-      </c>
-      <c r="M25" s="3">
-        <v>10</v>
-      </c>
-      <c r="N25" s="3">
-        <v>10</v>
       </c>
       <c r="O25" s="3">
         <v>10</v>
       </c>
       <c r="P25">
         <f>SUM(C25:O25)</f>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q25">
-        <f>100*P25/130</f>
-        <v>83.07692307692308</v>
+        <f>200*P25/130</f>
+        <v>164.61538461538461</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="S25" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>43763.655250717595</v>
+        <v>43766.46588087963</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="C26" s="3">
         <v>10</v>
       </c>
       <c r="D26" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3">
         <v>8</v>
       </c>
       <c r="G26" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H26" s="3">
         <v>10</v>
@@ -5816,41 +6224,47 @@
         <v>10</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O26" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P26">
         <f>SUM(C26:O26)</f>
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26:Q37" si="0">100*P26/130</f>
-        <v>82.307692307692307</v>
+        <f>200*P26/130</f>
+        <v>178.46153846153845</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="S26" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>43763.841544189811</v>
+        <v>43764.942468113426</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C27" s="3">
         <v>10</v>
       </c>
       <c r="D27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3">
         <v>8</v>
       </c>
       <c r="G27" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H27" s="3">
         <v>10</v>
@@ -5878,19 +6292,25 @@
       </c>
       <c r="P27">
         <f>SUM(C27:O27)</f>
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
-        <v>81.538461538461533</v>
+        <f>200*P27/130</f>
+        <v>178.46153846153845</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="S27" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>43764.439545659727</v>
+        <v>43766.463476423611</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="C28" s="3">
         <v>10</v>
@@ -5911,10 +6331,10 @@
         <v>10</v>
       </c>
       <c r="I28" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K28" s="3">
         <v>10</v>
@@ -5926,32 +6346,38 @@
         <v>10</v>
       </c>
       <c r="N28" s="3">
+        <v>10</v>
+      </c>
+      <c r="O28" s="3">
         <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>10</v>
       </c>
       <c r="P28">
         <f>SUM(C28:O28)</f>
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="0"/>
-        <v>86.92307692307692</v>
+        <f>200*P28/130</f>
+        <v>153.84615384615384</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="S28" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>43764.942468113426</v>
+        <v>43766.456259259256</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C29" s="3">
         <v>10</v>
       </c>
       <c r="D29" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>10</v>
@@ -5960,13 +6386,13 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" s="3">
         <v>10</v>
       </c>
       <c r="I29" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>10</v>
@@ -5981,21 +6407,27 @@
         <v>10</v>
       </c>
       <c r="N29" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O29" s="3">
         <v>10</v>
       </c>
       <c r="P29">
         <f>SUM(C29:O29)</f>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="0"/>
-        <v>89.230769230769226</v>
+        <f>200*P29/130</f>
+        <v>181.53846153846155</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="S29" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43765.99645712963</v>
       </c>
@@ -6046,16 +6478,22 @@
         <v>77</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="0"/>
-        <v>59.230769230769234</v>
+        <f>200*P30/130</f>
+        <v>118.46153846153847</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="S30" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>43766.426181828705</v>
+        <v>43766.471870925925</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="C31" s="3">
         <v>10</v>
@@ -6070,59 +6508,65 @@
         <v>8</v>
       </c>
       <c r="G31" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H31" s="3">
         <v>10</v>
       </c>
       <c r="I31" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J31" s="3">
         <v>10</v>
       </c>
       <c r="K31" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M31" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N31" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <f>SUM(C31:O31)</f>
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="0"/>
-        <v>89.230769230769226</v>
+        <f>200*P31/130</f>
+        <v>96.92307692307692</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="S31" t="s">
+        <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>43766.454824085653</v>
+        <v>43766.512355694445</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="C32" s="3">
         <v>10</v>
       </c>
       <c r="D32" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E32" s="3">
         <v>10</v>
       </c>
       <c r="F32" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G32" s="3">
         <v>8</v>
@@ -6131,62 +6575,68 @@
         <v>10</v>
       </c>
       <c r="I32" s="3">
+        <v>10</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10</v>
+      </c>
+      <c r="K32" s="3">
+        <v>10</v>
+      </c>
+      <c r="L32" s="3">
+        <v>10</v>
+      </c>
+      <c r="M32" s="3">
+        <v>10</v>
+      </c>
+      <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3">
-        <v>10</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>10</v>
-      </c>
-      <c r="M32" s="3">
-        <v>10</v>
-      </c>
-      <c r="N32" s="3">
-        <v>10</v>
-      </c>
       <c r="O32" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <f>SUM(C32:O32)</f>
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="0"/>
-        <v>89.230769230769226</v>
+        <f>200*P32/130</f>
+        <v>158.46153846153845</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="S32" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>43766.456259259256</v>
+        <v>43763.841544189811</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3">
         <v>10</v>
       </c>
       <c r="D33" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H33" s="3">
         <v>10</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J33" s="3">
         <v>10</v>
@@ -6201,26 +6651,32 @@
         <v>10</v>
       </c>
       <c r="N33" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O33" s="3">
         <v>10</v>
       </c>
       <c r="P33">
         <f>SUM(C33:O33)</f>
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="0"/>
-        <v>90.769230769230774</v>
+        <f>200*P33/130</f>
+        <v>163.07692307692307</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="S33" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>43766.463476423611</v>
+        <v>43766.426181828705</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C34" s="3">
         <v>10</v>
@@ -6235,16 +6691,16 @@
         <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H34" s="3">
         <v>10</v>
       </c>
       <c r="I34" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J34" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K34" s="3">
         <v>10</v>
@@ -6256,26 +6712,32 @@
         <v>10</v>
       </c>
       <c r="N34" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O34" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P34">
         <f>SUM(C34:O34)</f>
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="0"/>
-        <v>76.92307692307692</v>
+        <f>200*P34/130</f>
+        <v>178.46153846153845</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="S34" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>43766.46588087963</v>
+        <v>43763.644110995374</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3">
         <v>10</v>
@@ -6284,19 +6746,19 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F35" s="3">
         <v>8</v>
       </c>
       <c r="G35" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" s="3">
         <v>10</v>
       </c>
       <c r="I35" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>10</v>
@@ -6314,90 +6776,102 @@
         <v>10</v>
       </c>
       <c r="O35" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P35">
         <f>SUM(C35:O35)</f>
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="0"/>
-        <v>89.230769230769226</v>
+        <f>200*P35/130</f>
+        <v>166.15384615384616</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="S35" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>43766.471870925925</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="3">
-        <v>10</v>
-      </c>
-      <c r="D36" s="3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>43780.835682870369</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
         <v>5</v>
       </c>
-      <c r="E36" s="3">
-        <v>10</v>
-      </c>
-      <c r="F36" s="3">
-        <v>8</v>
-      </c>
-      <c r="G36" s="3">
-        <v>5</v>
-      </c>
-      <c r="H36" s="3">
-        <v>10</v>
-      </c>
-      <c r="I36" s="3">
-        <v>5</v>
-      </c>
-      <c r="J36" s="3">
-        <v>10</v>
-      </c>
-      <c r="K36" s="3">
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>10</v>
+      </c>
+      <c r="N36">
         <v>0</v>
       </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0</v>
+      <c r="O36">
+        <v>10</v>
       </c>
       <c r="P36">
         <f>SUM(C36:O36)</f>
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="0"/>
-        <v>48.46153846153846</v>
+        <f>200*P36/130</f>
+        <v>176.92307692307693</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="S36" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>43766.512355694445</v>
+        <v>43766.454824085653</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="C37" s="3">
         <v>10</v>
       </c>
       <c r="D37" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E37" s="3">
         <v>10</v>
       </c>
       <c r="F37" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G37" s="3">
         <v>8</v>
@@ -6406,7 +6880,7 @@
         <v>10</v>
       </c>
       <c r="I37" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3">
         <v>10</v>
@@ -6421,61 +6895,124 @@
         <v>10</v>
       </c>
       <c r="N37" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O37" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P37">
         <f>SUM(C37:O37)</f>
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="0"/>
-        <v>79.230769230769226</v>
+        <f>200*P37/130</f>
+        <v>178.46153846153845</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="S37" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
+    <row r="38" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>43764.439545659727</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="3">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3">
+        <v>10</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>10</v>
+      </c>
+      <c r="H38" s="3">
+        <v>10</v>
+      </c>
+      <c r="I38" s="3">
+        <v>10</v>
+      </c>
+      <c r="J38" s="3">
+        <v>10</v>
+      </c>
+      <c r="K38" s="3">
+        <v>10</v>
+      </c>
+      <c r="L38" s="3">
+        <v>10</v>
+      </c>
+      <c r="M38" s="3">
+        <v>10</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>10</v>
+      </c>
+      <c r="P38">
+        <f>SUM(C38:O38)</f>
+        <v>113</v>
+      </c>
+      <c r="Q38">
+        <f>200*P38/130</f>
+        <v>173.84615384615384</v>
+      </c>
+      <c r="R38" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="S38" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
     </row>
@@ -6484,9 +7021,114 @@
       <c r="B49" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:P49">
-    <sortCondition ref="A25:A49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:S38">
+    <sortCondition ref="S25:S38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CF1D42-D596-414A-BE0B-0F767F63DE46}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>43780.835682870369</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" s="6">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2019_Fall/Homework of BCH709 Midterm (Responses).xlsx
+++ b/2019_Fall/Homework of BCH709 Midterm (Responses).xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\scratch\lecture\BCH709\2019_Fall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFF4C9D-1ECA-4D38-A2A7-E3CC57A31221}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79CA923-CA6C-472E-B200-7C4EDE25160F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
+    <sheet name="Hayden" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="216">
   <si>
     <t>Timestamp</t>
   </si>
@@ -4283,10 +4286,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4303,13 +4307,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4336,10 +4351,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -4364,8 +4380,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4586,7 +4609,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:D4"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4669,7 +4692,7 @@
       <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -4974,31 +4997,31 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="14">
         <v>43766.454824085653</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="13" t="s">
         <v>110</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -5021,31 +5044,31 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="14">
         <v>43766.456259259256</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="13" t="s">
         <v>123</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -5308,11 +5331,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6C811D-A670-4498-88D9-DD5315496D67}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>43766.456259259256</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="3">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3">
+        <v>10</v>
+      </c>
+      <c r="P1">
+        <f t="shared" ref="P1:P2" si="0">SUM(C1:O1)</f>
+        <v>118</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" ref="Q1:Q2" si="1">200*P1/130</f>
+        <v>181.53846153846155</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="S1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>43763.644110995374</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3">
+        <v>10</v>
+      </c>
+      <c r="N2" s="3">
+        <v>10</v>
+      </c>
+      <c r="O2" s="3">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="1"/>
+        <v>166.15384615384616</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="S2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE72E22-C6E5-447C-A04C-1AF7509B675A}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S25" sqref="A25:S38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6169,11 +6329,11 @@
         <v>10</v>
       </c>
       <c r="P25">
-        <f>SUM(C25:O25)</f>
+        <f t="shared" ref="P25:P38" si="0">SUM(C25:O25)</f>
         <v>107</v>
       </c>
       <c r="Q25">
-        <f>200*P25/130</f>
+        <f t="shared" ref="Q25:Q38" si="1">200*P25/130</f>
         <v>164.61538461538461</v>
       </c>
       <c r="R25" s="3" t="s">
@@ -6230,11 +6390,11 @@
         <v>5</v>
       </c>
       <c r="P26">
-        <f>SUM(C26:O26)</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="Q26">
-        <f>200*P26/130</f>
+        <f t="shared" si="1"/>
         <v>178.46153846153845</v>
       </c>
       <c r="R26" s="3" t="s">
@@ -6291,11 +6451,11 @@
         <v>10</v>
       </c>
       <c r="P27">
-        <f>SUM(C27:O27)</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="Q27">
-        <f>200*P27/130</f>
+        <f t="shared" si="1"/>
         <v>178.46153846153845</v>
       </c>
       <c r="R27" s="3" t="s">
@@ -6352,11 +6512,11 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <f>SUM(C28:O28)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="Q28">
-        <f>200*P28/130</f>
+        <f t="shared" si="1"/>
         <v>153.84615384615384</v>
       </c>
       <c r="R28" s="3" t="s">
@@ -6413,11 +6573,11 @@
         <v>10</v>
       </c>
       <c r="P29">
-        <f>SUM(C29:O29)</f>
+        <f t="shared" si="0"/>
         <v>118</v>
       </c>
       <c r="Q29">
-        <f>200*P29/130</f>
+        <f t="shared" si="1"/>
         <v>181.53846153846155</v>
       </c>
       <c r="R29" s="3" t="s">
@@ -6474,11 +6634,11 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <f>SUM(C30:O30)</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="Q30">
-        <f>200*P30/130</f>
+        <f t="shared" si="1"/>
         <v>118.46153846153847</v>
       </c>
       <c r="R30" s="3" t="s">
@@ -6535,11 +6695,11 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <f>SUM(C31:O31)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="Q31">
-        <f>200*P31/130</f>
+        <f t="shared" si="1"/>
         <v>96.92307692307692</v>
       </c>
       <c r="R31" s="3" t="s">
@@ -6596,11 +6756,11 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <f>SUM(C32:O32)</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="Q32">
-        <f>200*P32/130</f>
+        <f t="shared" si="1"/>
         <v>158.46153846153845</v>
       </c>
       <c r="R32" s="3" t="s">
@@ -6657,11 +6817,11 @@
         <v>10</v>
       </c>
       <c r="P33">
-        <f>SUM(C33:O33)</f>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="Q33">
-        <f>200*P33/130</f>
+        <f t="shared" si="1"/>
         <v>163.07692307692307</v>
       </c>
       <c r="R33" s="3" t="s">
@@ -6718,11 +6878,11 @@
         <v>10</v>
       </c>
       <c r="P34">
-        <f>SUM(C34:O34)</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="Q34">
-        <f>200*P34/130</f>
+        <f t="shared" si="1"/>
         <v>178.46153846153845</v>
       </c>
       <c r="R34" s="3" t="s">
@@ -6743,10 +6903,10 @@
         <v>10</v>
       </c>
       <c r="D35" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3">
         <v>8</v>
@@ -6779,12 +6939,12 @@
         <v>10</v>
       </c>
       <c r="P35">
-        <f>SUM(C35:O35)</f>
-        <v>108</v>
+        <f t="shared" si="0"/>
+        <v>116</v>
       </c>
       <c r="Q35">
-        <f>200*P35/130</f>
-        <v>166.15384615384616</v>
+        <f t="shared" si="1"/>
+        <v>178.46153846153845</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>189</v>
@@ -6840,11 +7000,11 @@
         <v>10</v>
       </c>
       <c r="P36">
-        <f>SUM(C36:O36)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="Q36">
-        <f>200*P36/130</f>
+        <f t="shared" si="1"/>
         <v>176.92307692307693</v>
       </c>
       <c r="R36" s="10" t="s">
@@ -6901,11 +7061,11 @@
         <v>10</v>
       </c>
       <c r="P37">
-        <f>SUM(C37:O37)</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="Q37">
-        <f>200*P37/130</f>
+        <f t="shared" si="1"/>
         <v>178.46153846153845</v>
       </c>
       <c r="R37" s="3" t="s">
@@ -6962,11 +7122,11 @@
         <v>10</v>
       </c>
       <c r="P38">
-        <f>SUM(C38:O38)</f>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="Q38">
-        <f>200*P38/130</f>
+        <f t="shared" si="1"/>
         <v>173.84615384615384</v>
       </c>
       <c r="R38" s="11" t="s">
@@ -7028,11 +7188,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21ECB1D-821D-4AA2-B86E-99715C1BAA28}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>173</v>
+      </c>
+      <c r="B1">
+        <f>A1*4</f>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="15">
+        <f>692000000/150</f>
+        <v>4613333.333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CF1D42-D596-414A-BE0B-0F767F63DE46}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7131,4 +7326,293 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3BBB5C-1775-4B57-84AB-C7D4DEAC17D4}">
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>43763.644110995374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f>SUM(B3:B15)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>43766.456259259256</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10</v>
+      </c>
+      <c r="K24" s="3">
+        <v>10</v>
+      </c>
+      <c r="L24" s="3">
+        <v>10</v>
+      </c>
+      <c r="M24" s="3">
+        <v>10</v>
+      </c>
+      <c r="N24" s="3">
+        <v>10</v>
+      </c>
+      <c r="O24" s="3">
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24" si="0">SUM(C24:O24)</f>
+        <v>118</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24" si="1">200*P24/130</f>
+        <v>181.53846153846155</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="S24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>